--- a/src/main/resources/query.xlsx
+++ b/src/main/resources/query.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t xml:space="preserve">Query</t>
   </si>
@@ -28,52 +28,106 @@
     <t xml:space="preserve">crawl url</t>
   </si>
   <si>
+    <t xml:space="preserve">Query single price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query range price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query less than price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query greater than price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua căn hộ khoảng 20-30 m2 ở khu vực cầu giấy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://batdongsan.com.vn/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua chung cư giá 1 tỷ tại linh đàm</t>
+  </si>
+  <si>
     <t xml:space="preserve">mua nhà riêng giá khoảng 2-3 tỷ ở khu vực hai bà trưng hà nội</t>
   </si>
   <si>
-    <t xml:space="preserve">https://batdongsan.com.vn/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mua căn hộ khoảng 20-30 m2 ở khu vực cầu giấy</t>
+    <t xml:space="preserve">mua nhà riêng giá &lt;2 tỷ khu vực cầu giấy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua nhà riêng giá &gt; 2 tỷ khu vực cầu giấy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua nhà riêng giá &lt; 2 tỷ</t>
   </si>
   <si>
     <t xml:space="preserve">https://tinnhadat24h.vn</t>
   </si>
   <si>
-    <t xml:space="preserve">mua nhà riêng giá &lt; 2 tỷ</t>
+    <t xml:space="preserve">1.334 ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua nhà riêng giá 1-2 tỷ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua nhà riêng giá nhỏ hơn 2 tỷ khu vực xã đàn</t>
   </si>
   <si>
     <t xml:space="preserve">https://homedy.com/</t>
   </si>
   <si>
-    <t xml:space="preserve">mua nhà riêng giá 1-2 tỷ</t>
+    <t xml:space="preserve">1.22ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua căn hộ chung cư giá 2,3 tỷ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua căn hộ chung cư có 2 pn</t>
   </si>
   <si>
     <t xml:space="preserve">https://mogi.vn</t>
   </si>
   <si>
-    <t xml:space="preserve">mua nhà riêng giá nhỏ hơn 2 tỷ khu vực xã đàn</t>
+    <t xml:space="preserve">.484ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua căn hộ chung cư giá 2, 3 tỷ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua căn hộ có 2pn (phòng ngủ)</t>
   </si>
   <si>
     <t xml:space="preserve">https://muaban.net</t>
   </si>
   <si>
-    <t xml:space="preserve">mua căn hộ chung cư có 2 pn</t>
+    <t xml:space="preserve">mua nha rieng 5,3 ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua nhà riêng 2.5-3 tỷ tại phố vọng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua căn hộ có 2-3 phòng ngủ</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.muabannhadat.vn</t>
   </si>
   <si>
-    <t xml:space="preserve">mua căn hộ có 2pn (phòng ngủ)</t>
+    <t xml:space="preserve">mua nha rieng gia khoang 7 ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua nhà riêng giá 2,5-3 tỷ tại phố vọng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua căn hộ có 2-3 pn</t>
   </si>
   <si>
     <t xml:space="preserve">https://alonhadat.com.vn</t>
   </si>
   <si>
-    <t xml:space="preserve">mua căn hộ có 2-3 phòng ngủ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mua căn hộ có 2-3 pn</t>
+    <t xml:space="preserve">mua chung cu gia khoang 2.5 ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mua nhà riêng giá 2 3 tỷ khu vực cầu giấy</t>
   </si>
   <si>
     <t xml:space="preserve">mua chung cư có 3-4 phòng ngủ khu vực mỹ đình</t>
@@ -91,12 +145,6 @@
     <t xml:space="preserve">mua căn hộ chung cư diện tích khoảng 50-70m^2</t>
   </si>
   <si>
-    <t xml:space="preserve">mua căn hộ chung cư giá 2,3 tỷ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mua căn hộ chung cư giá 2, 3 tỷ</t>
-  </si>
-  <si>
     <t xml:space="preserve">mua căn hộ chung cư khoảng 50, 80m2</t>
   </si>
   <si>
@@ -112,28 +160,10 @@
     <t xml:space="preserve">nhà riêng 32m2 giá 2 tỷ 2pn 3vs tại linh đàm</t>
   </si>
   <si>
-    <t xml:space="preserve">mua nhà riêng giá 4t</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mua nhà riêng 2.5-3 tỷ tại phố vọng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mua nhà riêng giá 2,5-3 tỷ tại phố vọng</t>
-  </si>
-  <si>
     <t xml:space="preserve">mua nhà riêng diện tích khoảng 50m^2</t>
   </si>
   <si>
-    <t xml:space="preserve">mua nhà riêng giá 2 3 tỷ khu vực cầu giấy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mua nhà riêng 2 tỷ khu vực cầu giấy</t>
-  </si>
-  <si>
     <t xml:space="preserve">mua căn hộ chung cư 50m2 khu vực cầu giấy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mua nhà riêng giá &lt;2 tỷ khu vực cầu giấy</t>
   </si>
 </sst>
 </file>
@@ -143,7 +173,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -178,13 +208,24 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -221,7 +262,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,6 +275,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -243,6 +292,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -251,17 +360,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="57.7959183673469"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="49.5969387755102"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.265306122449"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.530612244898"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="31.8112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="50.4336734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.9540816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="38.2040816326531"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -271,171 +383,181 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
+      <c r="A5" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>10</v>
+      <c r="A6" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
+      <c r="A7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>13</v>
+        <v>29</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>14</v>
+      <c r="A8" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>16</v>
+      <c r="A9" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>17</v>
+      <c r="A10" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
